--- a/scrum_board.xlsx
+++ b/scrum_board.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITMONDINOC\Kaggle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITMONDINOC\Kaggle\AceaSmartWaterAnalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8943D661-3055-464C-961E-46A33E9A9BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA37103-48EF-4795-AEB8-46701A406B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B62BD1B-31D1-4B4A-B60E-AE30911C9554}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>To-Do</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>Andrada</t>
+  </si>
+  <si>
+    <t>Recurrent Neural Networks</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>LSTM for univariate time series</t>
+  </si>
+  <si>
+    <t>Autoregressive Convolutional Recurrent Neural Netowrk</t>
+  </si>
+  <si>
+    <t>Univariate time series forecast of Aquifer Patrignano</t>
   </si>
 </sst>
 </file>
@@ -93,9 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,16 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D83F88-49C4-4FAD-9EB4-B9235DFA2BEC}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -437,9 +455,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/scrum_board.xlsx
+++ b/scrum_board.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITMONDINOC\Kaggle\AceaSmartWaterAnalytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A393350\Desktop\Kaggle\AceaSmartWaterAnalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA37103-48EF-4795-AEB8-46701A406B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F29993-0292-45E8-89D4-F0A1079BC61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6B62BD1B-31D1-4B4A-B60E-AE30911C9554}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B62BD1B-31D1-4B4A-B60E-AE30911C9554}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scrum board" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>To-Do</t>
   </si>
@@ -46,12 +45,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Chiara</t>
-  </si>
-  <si>
-    <t>Andrada</t>
-  </si>
-  <si>
     <t>Recurrent Neural Networks</t>
   </si>
   <si>
@@ -65,6 +58,9 @@
   </si>
   <si>
     <t>Univariate time series forecast of Aquifer Patrignano</t>
+  </si>
+  <si>
+    <t>Selection of scope and direction</t>
   </si>
 </sst>
 </file>
@@ -88,12 +84,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,12 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,64 +444,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D83F88-49C4-4FAD-9EB4-B9235DFA2BEC}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="47.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;R&amp;1#&amp;"Calibri"&amp;8&amp;K737373General</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/scrum_board.xlsx
+++ b/scrum_board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A393350\Desktop\Kaggle\AceaSmartWaterAnalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F29993-0292-45E8-89D4-F0A1079BC61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250EFB12-77CC-4C06-AFAB-AE8EDD90E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B62BD1B-31D1-4B4A-B60E-AE30911C9554}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>To-Do</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Recurrent Neural Networks</t>
   </si>
   <si>
-    <t>ARIMA</t>
-  </si>
-  <si>
     <t>LSTM for univariate time series</t>
   </si>
   <si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>Selection of scope and direction</t>
+  </si>
+  <si>
+    <t>start ARIMA</t>
+  </si>
+  <si>
+    <t>Improve ARIMA existing model</t>
   </si>
 </sst>
 </file>
@@ -444,17 +447,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D83F88-49C4-4FAD-9EB4-B9235DFA2BEC}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -472,26 +475,27 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/scrum_board.xlsx
+++ b/scrum_board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A393350\Desktop\Kaggle\AceaSmartWaterAnalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250EFB12-77CC-4C06-AFAB-AE8EDD90E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73256F-6AFE-49F2-B6A9-78F5067D1EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B62BD1B-31D1-4B4A-B60E-AE30911C9554}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>To-Do</t>
   </si>
@@ -45,15 +45,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Recurrent Neural Networks</t>
-  </si>
-  <si>
-    <t>LSTM for univariate time series</t>
-  </si>
-  <si>
-    <t>Autoregressive Convolutional Recurrent Neural Netowrk</t>
-  </si>
-  <si>
     <t>Univariate time series forecast of Aquifer Patrignano</t>
   </si>
   <si>
@@ -64,6 +55,21 @@
   </si>
   <si>
     <t>Improve ARIMA existing model</t>
+  </si>
+  <si>
+    <t>Products demand (https://www.datacamp.com/courses/forecasting-product-demand-in-r)</t>
+  </si>
+  <si>
+    <t>Dada studying forecasting methods (https://www.datacamp.com/tutorial/tutorial-time-series-forecasting?irclickid=Qu-WEL35QxyIRzmX30wL5WzCUkD2--zut0y1wg0&amp;irgwc=1&amp;utm_medium=affiliate&amp;utm_source=impact&amp;utm_campaign=1310690#what-is-time-series-forecasting-)</t>
+  </si>
+  <si>
+    <t>Classical / Statistical Models — Moving Averages, Exponential Smoothing, ARIMA, SARIMA, TBATS</t>
+  </si>
+  <si>
+    <t>Machine Learning — Linear Regression, XGBoost, Random Forest, or any ML model with reduction methods</t>
+  </si>
+  <si>
+    <t>Deep Learning — RNN, LSTM, Autoregressive CNN for univariate time series / multivariate</t>
   </si>
 </sst>
 </file>
@@ -447,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D83F88-49C4-4FAD-9EB4-B9235DFA2BEC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.54296875" customWidth="1"/>
     <col min="2" max="2" width="45.81640625" customWidth="1"/>
     <col min="3" max="3" width="52.90625" customWidth="1"/>
   </cols>
@@ -472,31 +478,45 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scrum_board.xlsx
+++ b/scrum_board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A393350\Desktop\Kaggle\AceaSmartWaterAnalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73256F-6AFE-49F2-B6A9-78F5067D1EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E14814-32B4-4FAD-AF72-EDE14CF699F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B62BD1B-31D1-4B4A-B60E-AE30911C9554}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>start ARIMA</t>
   </si>
   <si>
-    <t>Improve ARIMA existing model</t>
-  </si>
-  <si>
     <t>Products demand (https://www.datacamp.com/courses/forecasting-product-demand-in-r)</t>
   </si>
   <si>
@@ -70,6 +67,10 @@
   </si>
   <si>
     <t>Deep Learning — RNN, LSTM, Autoregressive CNN for univariate time series / multivariate</t>
+  </si>
+  <si>
+    <t>Create prediction and interpretation of results for Aquifers and Water Spring in 2 separate notebooks as:
+- baseline model (such as e.g. ARIMA) on univariate analysis and get conclusions</t>
   </si>
 </sst>
 </file>
@@ -131,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -139,6 +140,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,21 +484,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -501,7 +506,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -509,11 +514,8 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>

--- a/scrum_board.xlsx
+++ b/scrum_board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A393350\Desktop\Kaggle\AceaSmartWaterAnalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E14814-32B4-4FAD-AF72-EDE14CF699F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA7CDF8-520D-42C4-BDC3-B729AF676AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6B62BD1B-31D1-4B4A-B60E-AE30911C9554}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>To-Do</t>
   </si>
@@ -71,6 +71,12 @@
   <si>
     <t>Create prediction and interpretation of results for Aquifers and Water Spring in 2 separate notebooks as:
 - baseline model (such as e.g. ARIMA) on univariate analysis and get conclusions</t>
+  </si>
+  <si>
+    <t>CatBoost Regressor</t>
+  </si>
+  <si>
+    <t>https://openai.com/dall-e-2/</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,8 +523,15 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
